--- a/Excel/Client_SkillCanvasConfig.xlsx
+++ b/Excel/Client_SkillCanvasConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23610"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB625C42-3531-4252-A47C-44F0AEC11CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5129A250-F8E7-43F3-9D39-9C9234362965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="2415" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="5">
-        <v>104959496486958</v>
+        <v>105428536590377</v>
       </c>
       <c r="F7" s="1">
         <v>10002</v>

--- a/Excel/Client_SkillCanvasConfig.xlsx
+++ b/Excel/Client_SkillCanvasConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23617"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5129A250-F8E7-43F3-9D39-9C9234362965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D804E52A-36EA-482B-96CD-01FA77B377E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="2415" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>BelongToSkillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺手W技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -571,6 +575,20 @@
         <v>10002</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>10003</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>105439787352098</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Client_SkillCanvasConfig.xlsx
+++ b/Excel/Client_SkillCanvasConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23617"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D804E52A-36EA-482B-96CD-01FA77B377E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BBDC6D-81F5-4996-86B0-0A68537D9956}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>诺手W技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺手E技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -576,10 +580,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>10003</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5">
@@ -587,6 +591,20 @@
       </c>
       <c r="F8" s="1">
         <v>10003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <v>10004</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5">
+        <v>105445248139316</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10004</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Client_SkillCanvasConfig.xlsx
+++ b/Excel/Client_SkillCanvasConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BBDC6D-81F5-4996-86B0-0A68537D9956}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F27D79-D40E-42C6-93DE-C243544AE879}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="2595" windowWidth="21600" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="7">
-        <v>104965926289429</v>
+        <v>105926695190565</v>
       </c>
       <c r="F6" s="1">
         <v>10001</v>

--- a/Excel/Client_SkillCanvasConfig.xlsx
+++ b/Excel/Client_SkillCanvasConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F27D79-D40E-42C6-93DE-C243544AE879}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A3DC7-8D0F-47F1-9383-EA0D9F65DBB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6870" yWindow="2595" windowWidth="21600" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -573,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="5">
-        <v>105428536590377</v>
+        <v>105926992199721</v>
       </c>
       <c r="F7" s="1">
         <v>10002</v>
@@ -587,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="5">
-        <v>105439787352098</v>
+        <v>105927030276134</v>
       </c>
       <c r="F8" s="1">
         <v>10003</v>
@@ -601,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="5">
-        <v>105445248139316</v>
+        <v>105927001505821</v>
       </c>
       <c r="F9" s="1">
         <v>10004</v>
